--- a/barrocIT bestanden/agenda 08-09-2015.xlsx
+++ b/barrocIT bestanden/agenda 08-09-2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Documents\GitHub\BarrocIT\barrocIT bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>wie</t>
   </si>
@@ -910,7 +910,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,9 @@
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="48"/>
+      <c r="F25" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1464,18 +1466,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1528,14 +1530,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1545,6 +1539,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
